--- a/GATEWAY/S1#042000000000XX/APSS/SIO/2.13.0/report-checklist.xlsx
+++ b/GATEWAY/S1#042000000000XX/APSS/SIO/2.13.0/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="335">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1366,6 +1366,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.42.4.4.d371fb2382e489f292efcc30428d2c2037e560eb108f61684e99da2a6bf6fe36.917449d88b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Verifiche ex post</t>
   </si>
 </sst>
 </file>
@@ -1708,6 +1711,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1722,9 +1728,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4295,10 +4298,10 @@
   <dimension ref="A1:T706"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -4336,12 +4339,12 @@
       <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -4359,14 +4362,14 @@
       <c r="T2" s="14"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -4384,12 +4387,12 @@
       <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="1"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -4408,12 +4411,12 @@
       <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -4431,8 +4434,8 @@
       <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="16"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -4487,7 +4490,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1">
+    <row r="9" spans="1:20" ht="15.2" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
@@ -6540,7 +6543,9 @@
       <c r="J61" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K61" s="25"/>
+      <c r="K61" s="37" t="s">
+        <v>120</v>
+      </c>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
       <c r="N61" s="25"/>
@@ -6648,13 +6653,13 @@
       <c r="F64" s="23">
         <v>45264</v>
       </c>
-      <c r="G64" s="43" t="s">
+      <c r="G64" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="H64" s="43" t="s">
+      <c r="H64" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="I64" s="43" t="s">
+      <c r="I64" s="38" t="s">
         <v>333</v>
       </c>
       <c r="J64" s="25" t="s">
@@ -7123,11 +7128,19 @@
         <v>54</v>
       </c>
       <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
+      <c r="L76" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M76" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="P76" s="37" t="s">
+        <v>334</v>
+      </c>
       <c r="Q76" s="25"/>
       <c r="R76" s="26"/>
       <c r="S76" s="27"/>
@@ -7243,11 +7256,19 @@
         <v>54</v>
       </c>
       <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
+      <c r="L79" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M79" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" s="37" t="s">
+        <v>334</v>
+      </c>
       <c r="Q79" s="25"/>
       <c r="R79" s="26"/>
       <c r="S79" s="27"/>
@@ -12314,7 +12335,7 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L10:M18 O10:O18 L20:M21 O20:O21 M27:M89 J26 J68:J86 O27:O89 M23 O23 L23:L89">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L10:M18 O10:O18 L20:M21 O20:O21 J26 J68:J86 N79:O79 M23 O23 O77:O78 O80:O89 O27:O75 M27:M89 L23:L89 N76:O76">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12343,7 +12364,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>

--- a/GATEWAY/S1#042000000000XX/APSS/SIO/2.13.0/report-checklist.xlsx
+++ b/GATEWAY/S1#042000000000XX/APSS/SIO/2.13.0/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="328">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -988,15 +988,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-12-04T12:23:23.118Z</t>
-  </si>
-  <si>
-    <t>e07b8fc71409afaf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.42.4.4.9cb922903b2bc119dddde243bb819a942c1d4bd51a83df889a05af3ba6ccb07e.e6107fa100^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
   </si>
   <si>
@@ -1024,15 +1015,6 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-12-04T12:23:18.814Z</t>
-  </si>
-  <si>
-    <t>e658b6bf7046f181</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.42.4.4.1a17688868a31da804f75d24af87de7b49f0b8f6928b8262b26433799af16ec6.9349c2877e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT17_KO</t>
@@ -1366,9 +1348,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.42.4.4.d371fb2382e489f292efcc30428d2c2037e560eb108f61684e99da2a6bf6fe36.917449d88b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Verifiche ex post</t>
   </si>
 </sst>
 </file>
@@ -4620,7 +4599,7 @@
         <v>58</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
@@ -4658,7 +4637,7 @@
         <v>58</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
@@ -4734,7 +4713,7 @@
         <v>58</v>
       </c>
       <c r="K14" s="37" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -4772,7 +4751,7 @@
         <v>58</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -4810,7 +4789,7 @@
         <v>58</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -4886,7 +4865,7 @@
         <v>58</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -4924,7 +4903,7 @@
         <v>58</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -4962,7 +4941,7 @@
         <v>58</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -5000,7 +4979,7 @@
         <v>58</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -5038,7 +5017,7 @@
         <v>58</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -5076,7 +5055,7 @@
         <v>58</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -5119,13 +5098,13 @@
         <v>58</v>
       </c>
       <c r="N24" s="36" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O24" s="36" t="s">
         <v>54</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q24" s="25"/>
       <c r="R24" s="26" t="s">
@@ -5165,13 +5144,13 @@
         <v>58</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O25" s="36" t="s">
         <v>54</v>
       </c>
       <c r="P25" s="36" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="25"/>
       <c r="R25" s="26" t="s">
@@ -5211,13 +5190,13 @@
         <v>58</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O26" s="36" t="s">
         <v>54</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26" t="s">
@@ -6654,13 +6633,13 @@
         <v>45264</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H64" s="38" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J64" s="25" t="s">
         <v>54</v>
@@ -7081,7 +7060,7 @@
       <c r="J75" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="K75" s="25" t="s">
+      <c r="K75" s="37" t="s">
         <v>215</v>
       </c>
       <c r="L75" s="25"/>
@@ -7112,35 +7091,21 @@
       <c r="E76" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="F76" s="23">
-        <v>45264</v>
-      </c>
-      <c r="G76" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="H76" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="I76" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="J76" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="K76" s="25"/>
-      <c r="L76" s="37" t="s">
+      <c r="F76" s="23"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="M76" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="K76" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
       <c r="N76" s="37"/>
-      <c r="O76" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="P76" s="37" t="s">
-        <v>334</v>
-      </c>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
       <c r="Q76" s="25"/>
       <c r="R76" s="26"/>
       <c r="S76" s="27"/>
@@ -7159,10 +7124,10 @@
         <v>77</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="24"/>
@@ -7172,7 +7137,7 @@
         <v>58</v>
       </c>
       <c r="K77" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L77" s="25"/>
       <c r="M77" s="25"/>
@@ -7197,10 +7162,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="24"/>
@@ -7210,7 +7175,7 @@
         <v>58</v>
       </c>
       <c r="K78" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
@@ -7235,40 +7200,26 @@
         <v>77</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="F79" s="23">
-        <v>45264</v>
-      </c>
-      <c r="G79" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="H79" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="J79" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="K79" s="25"/>
-      <c r="L79" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F79" s="23"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="M79" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="K79" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
       <c r="N79" s="37"/>
-      <c r="O79" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="P79" s="37" t="s">
-        <v>334</v>
-      </c>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
       <c r="Q79" s="25"/>
       <c r="R79" s="26"/>
       <c r="S79" s="27"/>
@@ -7287,10 +7238,10 @@
         <v>77</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F80" s="29"/>
       <c r="G80" s="24"/>
@@ -7300,7 +7251,7 @@
         <v>58</v>
       </c>
       <c r="K80" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
@@ -7325,10 +7276,10 @@
         <v>77</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F81" s="29"/>
       <c r="G81" s="24"/>
@@ -7338,7 +7289,7 @@
         <v>58</v>
       </c>
       <c r="K81" s="25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
@@ -7363,10 +7314,10 @@
         <v>77</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F82" s="29"/>
       <c r="G82" s="24"/>
@@ -7376,7 +7327,7 @@
         <v>58</v>
       </c>
       <c r="K82" s="25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L82" s="25"/>
       <c r="M82" s="25"/>
@@ -7401,10 +7352,10 @@
         <v>77</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F83" s="29"/>
       <c r="G83" s="24"/>
@@ -7414,7 +7365,7 @@
         <v>58</v>
       </c>
       <c r="K83" s="25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L83" s="25"/>
       <c r="M83" s="25"/>
@@ -7439,10 +7390,10 @@
         <v>77</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="24"/>
@@ -7452,7 +7403,7 @@
         <v>58</v>
       </c>
       <c r="K84" s="25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L84" s="25"/>
       <c r="M84" s="25"/>
@@ -7477,10 +7428,10 @@
         <v>77</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="24"/>
@@ -7515,10 +7466,10 @@
         <v>77</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F86" s="29"/>
       <c r="G86" s="24"/>
@@ -7528,7 +7479,7 @@
         <v>58</v>
       </c>
       <c r="K86" s="25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L86" s="25"/>
       <c r="M86" s="25"/>
@@ -7553,22 +7504,22 @@
         <v>48</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F87" s="23">
         <v>45264</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="I87" s="24" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J87" s="25" t="s">
         <v>54</v>
@@ -7597,22 +7548,22 @@
         <v>64</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F88" s="23">
         <v>45264</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I88" s="24" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J88" s="25" t="s">
         <v>54</v>
@@ -7641,22 +7592,22 @@
         <v>77</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F89" s="23">
         <v>45264</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H89" s="24" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I89" s="24" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J89" s="25" t="s">
         <v>54</v>
@@ -12384,24 +12335,24 @@
         <v>28</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
@@ -12409,55 +12360,55 @@
         <v>48</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>274</v>
-      </c>
       <c r="D4" s="33" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12465,13 +12416,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -12479,55 +12430,55 @@
         <v>77</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45">
       <c r="A10" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C11" s="32">
         <v>192</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
@@ -12535,55 +12486,55 @@
         <v>48</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C12" s="32">
         <v>208</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C13" s="32">
         <v>224</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C14" s="32">
         <v>240</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C15" s="32">
         <v>256</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
@@ -12591,13 +12542,13 @@
         <v>64</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C16" s="32">
         <v>272</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
@@ -12605,41 +12556,41 @@
         <v>77</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C17" s="32">
         <v>288</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
       <c r="A18" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>292</v>
       </c>
       <c r="C18" s="32">
         <v>304</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C19" s="32">
         <v>193</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
@@ -12647,55 +12598,55 @@
         <v>48</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C20" s="32">
         <v>209</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C21" s="32">
         <v>225</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C22" s="32">
         <v>241</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C23" s="32">
         <v>257</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
@@ -12703,13 +12654,13 @@
         <v>64</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C24" s="32">
         <v>273</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
@@ -12717,41 +12668,41 @@
         <v>77</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C25" s="32">
         <v>289</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C26" s="32">
         <v>305</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C27" s="32">
         <v>194</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
@@ -12759,55 +12710,55 @@
         <v>48</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C28" s="32">
         <v>210</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C29" s="32">
         <v>226</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C30" s="32">
         <v>242</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C31" s="32">
         <v>258</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
@@ -12815,13 +12766,13 @@
         <v>64</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C32" s="32">
         <v>274</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
@@ -12829,35 +12780,35 @@
         <v>77</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C33" s="32">
         <v>290</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C34" s="32">
         <v>306</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C35" s="32">
         <v>195</v>
@@ -12871,7 +12822,7 @@
         <v>48</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C36" s="32">
         <v>211</v>
@@ -12882,10 +12833,10 @@
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C37" s="32">
         <v>227</v>
@@ -12896,10 +12847,10 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C38" s="32">
         <v>243</v>
@@ -12910,10 +12861,10 @@
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
       <c r="A39" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C39" s="32">
         <v>259</v>
@@ -12927,7 +12878,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C40" s="32">
         <v>275</v>
@@ -12941,7 +12892,7 @@
         <v>77</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C41" s="32">
         <v>291</v>
@@ -12952,10 +12903,10 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="A42" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C42" s="32">
         <v>307</v>
@@ -12966,10 +12917,10 @@
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C43" s="32">
         <v>196</v>
@@ -12983,7 +12934,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C44" s="32">
         <v>212</v>
@@ -12994,10 +12945,10 @@
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1">
       <c r="A45" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C45" s="32">
         <v>228</v>
@@ -13008,10 +12959,10 @@
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C46" s="32">
         <v>244</v>
@@ -13022,10 +12973,10 @@
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1">
       <c r="A47" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C47" s="32">
         <v>260</v>
@@ -13039,7 +12990,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C48" s="32">
         <v>276</v>
@@ -13053,7 +13004,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C49" s="32">
         <v>292</v>
@@ -13064,10 +13015,10 @@
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C50" s="32">
         <v>308</v>
@@ -14055,7 +14006,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>54</v>
@@ -14063,7 +14014,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="35" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>58</v>
